--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_15-37.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_15-37.xlsx
@@ -44,6 +44,9 @@
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
     <t>CHITO 500 MG 60 CAPS.</t>
   </si>
   <si>
@@ -155,19 +158,40 @@
     <t xml:space="preserve">XILOPRED 16MG  20TAB</t>
   </si>
   <si>
+    <t>ايفا سموكر كبير</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جل دم الغزال </t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>-2:0</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>-1:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان ديبرودنت 13 مل</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -824,7 +848,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -850,7 +874,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -876,11 +900,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -888,7 +912,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -902,11 +926,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -922,17 +946,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -940,7 +964,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -948,17 +972,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>43.329999999999998</v>
+        <v>74</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,7 +990,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -974,13 +998,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>21</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -992,7 +1016,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1000,17 +1024,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1032,11 +1056,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1044,7 +1068,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1052,17 +1076,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1078,17 +1102,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>133.5</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1110,7 +1134,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>57</v>
+        <v>133.5</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1130,13 +1154,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1148,7 +1172,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1156,13 +1180,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1188,7 +1212,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1214,7 +1238,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1240,11 +1264,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1252,7 +1276,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1260,17 +1284,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1278,7 +1302,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1286,17 +1310,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1312,17 +1336,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>71.5</v>
+        <v>120</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1338,17 +1362,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>71.5</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1356,7 +1380,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1364,17 +1388,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1382,7 +1406,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1390,17 +1414,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1416,17 +1440,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1442,17 +1466,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1460,7 +1484,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1468,17 +1492,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1494,17 +1518,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1512,7 +1536,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1520,13 +1544,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1538,7 +1562,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1546,7 +1570,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1559,38 +1583,194 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="26.25" customHeight="1">
-      <c r="K35" s="10">
-        <v>1966.3299999999999</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="11">
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
+        <v>52</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>53</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>4</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
+        <v>54</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
         <v>55</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c t="s" r="F36" s="12">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>35</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
         <v>56</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c t="s" r="I36" s="14">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
         <v>57</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>15</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c t="s" r="N37" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
+        <v>58</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
+        <v>59</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>44.549999999999997</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c t="s" r="N38" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>60</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>55</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>35</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c t="s" r="N39" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
+        <v>61</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>62</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>30</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c t="s" r="N40" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="K41" s="10">
+        <v>2182.8800000000001</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="11">
+        <v>63</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c t="s" r="F42" s="12">
+        <v>64</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c t="s" r="I42" s="14">
+        <v>65</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="122">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1691,10 +1871,28 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:N42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
